--- a/Mifos Automation Excels/Client/2693-RBI-EI-DB-DL-REC-Non-RNI-CTPD-DL-MD-TR-2-DIS-AccCL1stFEB-REPAYon2ndFEB-RunPERon2ndFEB-DELETEAccCL-REPAYLATE-RunPERon15thMAR-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2693-RBI-EI-DB-DL-REC-Non-RNI-CTPD-DL-MD-TR-2-DIS-AccCL1stFEB-REPAYon2ndFEB-RunPERon2ndFEB-DELETEAccCL-REPAYLATE-RunPERon15thMAR-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="726" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="726" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>Head Office</t>
   </si>
@@ -185,13 +185,7 @@
     <t>Accrual</t>
   </si>
   <si>
-    <t>verifyrepayment</t>
-  </si>
-  <si>
     <t>Repayment</t>
-  </si>
-  <si>
-    <t>validation.msg.periodicaccrual.execution.failed</t>
   </si>
 </sst>
 </file>
@@ -851,10 +845,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,14 +873,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -896,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1017,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1123,7 @@
         <v>41708</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="13">
         <v>1000</v>
@@ -1233,7 +1219,7 @@
         <v>41672</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="14">
         <v>887.72</v>
